--- a/PE loop sample 5/Sample C/Unnormalized_Pmax_Sample_5C_5Hz.xlsx
+++ b/PE loop sample 5/Sample C/Unnormalized_Pmax_Sample_5C_5Hz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Unnormalized P_max</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Electrode Locations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +459,11 @@
       <c r="B2" t="n">
         <v>91.820615</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -464,55 +474,85 @@
       <c r="B3" t="n">
         <v>86.09393799999999</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B15</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C13_bipolar_10V_5Hz.txt</t>
+          <t>C1_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.003117</v>
+        <v>114.275164</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C15_bipolar_10V_5Hz.txt</t>
+          <t>C3_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.636139</v>
+        <v>85.452034</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C1_bipolar_10V_5Hz.txt</t>
+          <t>C9_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.275164</v>
+        <v>79.168232</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C3_bipolar_10V_5Hz.txt</t>
+          <t>C13_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.452034</v>
+        <v>76.003117</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C9_bipolar_10V_5Hz.txt</t>
+          <t>C15_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.168232</v>
+        <v>77.636139</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C15</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -524,6 +564,11 @@
       <c r="B9" t="n">
         <v>55.179571</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -534,245 +579,370 @@
       <c r="B10" t="n">
         <v>57.163823</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E10_bipolar_10V_5Hz.txt</t>
+          <t>E1_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.550149</v>
+        <v>90.552955</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E11_bipolar_10V_5Hz.txt</t>
+          <t>E4_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.970427</v>
+        <v>56.439158</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E15_bipolar_10V_5Hz.txt</t>
+          <t>E6_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.211445</v>
+        <v>56.638996</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E1_bipolar_10V_5Hz.txt</t>
+          <t>E7_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.552955</v>
+        <v>64.02291700000001</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E4_bipolar_10V_5Hz.txt</t>
+          <t>E10_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.439158</v>
+        <v>76.550149</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E6_bipolar_10V_5Hz.txt</t>
+          <t>E11_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.638996</v>
+        <v>68.970427</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E7_bipolar_10V_5Hz.txt</t>
+          <t>E15_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.02291700000001</v>
+        <v>68.211445</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>E15</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>G12_bipolar_10V_5Hz.txt</t>
+          <t>G4_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>70.175512</v>
+        <v>58.746381</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G13_bipolar_10V_5Hz.txt</t>
+          <t>G5_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.147668</v>
+        <v>57.222362</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>G4_bipolar_10V_5Hz.txt</t>
+          <t>G7_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58.746381</v>
+        <v>64.68097</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>G5_bipolar_10V_5Hz.txt</t>
+          <t>G9_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.222362</v>
+        <v>76.80045200000001</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>G9</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>G7_bipolar_10V_5Hz.txt</t>
+          <t>G12_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.68097</v>
+        <v>70.175512</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>G9_bipolar_10V_5Hz.txt</t>
+          <t>G13_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.80045200000001</v>
+        <v>62.147668</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>G13</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I11_bipolar_10V_5Hz.txt</t>
+          <t>I3_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>67.817825</v>
+        <v>56.451269</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I15_bipolar_10V_5Hz.txt</t>
+          <t>I5_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.521496</v>
+        <v>58.443596</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I3_bipolar_10V_5Hz.txt</t>
+          <t>I11_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.451269</v>
+        <v>67.817825</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>I11</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I5_bipolar_10V_5Hz.txt</t>
+          <t>I15_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58.443596</v>
+        <v>69.521496</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>I15</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>J13_bipolar_10V_5Hz.txt</t>
+          <t>J2_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.229212</v>
+        <v>60.958731</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>J2</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>J2_bipolar_10V_5Hz.txt</t>
+          <t>J13_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60.958731</v>
+        <v>66.229212</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>J13</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>K10_bipolar_10V_5Hz.txt</t>
+          <t>K1_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>61.455299</v>
+        <v>67.989403</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>K1</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>K12_bipolar_10V_5Hz.txt</t>
+          <t>K10_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.956705</v>
+        <v>61.455299</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>K10</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>K14_bipolar_10V_5Hz.txt</t>
+          <t>K12_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.789973</v>
+        <v>65.956705</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>K12</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>K15_bipolar_10V_5Hz.txt</t>
+          <t>K14_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>63.899784</v>
+        <v>64.789973</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>K14</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>K1_bipolar_10V_5Hz.txt</t>
+          <t>K15_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.989403</v>
+        <v>63.899784</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>K15</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -784,6 +954,11 @@
       <c r="B35" t="n">
         <v>58.909885</v>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>M10</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -794,6 +969,11 @@
       <c r="B36" t="n">
         <v>71.172684</v>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>M11</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -804,55 +984,85 @@
       <c r="B37" t="n">
         <v>60.87597</v>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>O14_bipolar_10V_5Hz.txt</t>
+          <t>O2_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>63.336604</v>
+        <v>70.41773999999999</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>O2_bipolar_10V_5Hz.txt</t>
+          <t>O3_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70.41773999999999</v>
+        <v>86.978071</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>O3</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>O3_bipolar_10V_5Hz.txt</t>
+          <t>O5_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>86.978071</v>
+        <v>92.878345</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>O5</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>O5_bipolar_10V_5Hz.txt</t>
+          <t>O8_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>92.878345</v>
+        <v>75.892096</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>O8</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>O8_bipolar_10V_5Hz.txt</t>
+          <t>O14_bipolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>75.892096</v>
+        <v>63.336604</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>O14</t>
+        </is>
       </c>
     </row>
   </sheetData>
